--- a/外部設計/A5_画面遷移図.xlsx
+++ b/外部設計/A5_画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A219D-8534-4CB4-B00F-EDD114155ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6569AE3-6E92-4E56-937D-517A5AE0D029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,6 +216,138 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>207597</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>207596</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>48845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 対角を丸める 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38599BFE-DA84-419C-9B75-50C779009F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12590097" y="9757018"/>
+          <a:ext cx="7937499" cy="5434135"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207596</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 対角を丸める 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CFC44D-5C9A-41DA-9D4A-B339FB58DC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13286154" y="4884615"/>
+          <a:ext cx="4799134" cy="3907693"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>465464</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1244,6 +1376,2163 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1001347</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>24426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19667</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>98648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 対角を丸める 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744AEC35-D10D-4228-AD4C-C707E6907258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1941635" y="9183080"/>
+          <a:ext cx="9239378" cy="6057876"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280865</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396320</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>11990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DEDCBC-C4FC-481E-AEA1-A7D20695855A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4725865" y="8890000"/>
+          <a:ext cx="3168340" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>データ一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1135674</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>61058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>164390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF6D133-621E-44D6-892C-9ACD24D77551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2075962" y="11442212"/>
+          <a:ext cx="4518269" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日用品一覧画面（トップ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18071</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>18074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133527</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8BCAD4-FD7E-4953-9B1A-7FE03560C5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515956" y="11399228"/>
+          <a:ext cx="3168340" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>家事一覧画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>464040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>464039</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3C986B-4376-463A-94A6-72C61A656133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13457117" y="769327"/>
+          <a:ext cx="1221153" cy="3"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F30AA1-A9FE-412D-8317-73F013A124DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14983558" y="451827"/>
+          <a:ext cx="3370384" cy="512885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427403</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819248FE-6609-4EFF-895B-A29FFB3203A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13420480" y="1526442"/>
+          <a:ext cx="1270001" cy="12213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFF476F-5D64-45E9-89E1-10DF26BCB5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14983558" y="1147885"/>
+          <a:ext cx="3602404" cy="598365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>タブによる切り替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533B7936-52F7-4E33-A42A-B1DEE5396E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13396058" y="2369039"/>
+          <a:ext cx="1294423" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>122115</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>61058</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2DBCD9-D174-46CA-94C6-E9296377295E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14946923" y="2088174"/>
+          <a:ext cx="3602404" cy="598365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>モーダルウィンドウ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427403</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573942</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0169AE-DE91-4F35-9D80-50A2B613FF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6093557" y="10196634"/>
+          <a:ext cx="1367693" cy="12212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA53607B-20BC-4220-8017-C3D3558832DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4542692" y="10733942"/>
+          <a:ext cx="1" cy="549520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>183174</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195385</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0989E63-4954-4F85-A60D-234F134AF99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8902212" y="10611827"/>
+          <a:ext cx="12211" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>610579</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225361</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656F92FC-C726-43D2-8960-2BB1D84F4170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723175" y="9879134"/>
+          <a:ext cx="3168340" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日用品登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12212</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>61058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127668</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>170739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="四角形: 角を丸くする 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FDE834-DF63-46AA-872F-28F578212065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7510097" y="9732596"/>
+          <a:ext cx="3168340" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>家事登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464038</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2C77C5-7C51-4063-9AD3-2F72B436724C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6752981" y="11845192"/>
+          <a:ext cx="598365" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696058</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>146541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310840</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>78912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="四角形: 角を丸くする 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3B85A0-7DA2-483B-A7DF-FD5FF8F26BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2808654" y="12724426"/>
+          <a:ext cx="3168340" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日用品詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42496</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157952</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>60351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="四角形: 角を丸くする 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00048204-4551-402B-914A-0C510A7E669A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7540381" y="12705865"/>
+          <a:ext cx="3168340" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>家事詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726343</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341125</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>35926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="四角形: 角を丸くする 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006915E-3EC2-4B28-A8CE-86BE8B68785A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838939" y="14049133"/>
+          <a:ext cx="3168340" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日用品編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48358</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>146053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163814</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="四角形: 角を丸くする 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357E62C2-A502-4FA4-85BB-FE90E7160065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7546243" y="14091630"/>
+          <a:ext cx="3168340" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>家事編集画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>268654</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280866</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6088CE09-5B31-4221-BE74-4AF9449CCBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8987692" y="12199331"/>
+          <a:ext cx="12212" cy="390766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1245576</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257788</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>61054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D1188A-4798-4659-9256-4C502F99BBBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4383941" y="13615865"/>
+          <a:ext cx="12212" cy="390766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1245578</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>36633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257790</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587E684B-029C-4BC9-970D-989C9FA32C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4383943" y="12272595"/>
+          <a:ext cx="12212" cy="390766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>378558</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>378558</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>36631</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD17B61-CB0E-45EF-8AAB-71823876A178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9097596" y="13615865"/>
+          <a:ext cx="0" cy="366343"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145588</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F0B357-ACC4-4D95-B0CF-5DC55C04A08E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14543942" y="4493846"/>
+          <a:ext cx="2258184" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>育成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>354134</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: 角を丸くする 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3015B083-7852-4987-8116-96EE00DC40B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13957788" y="5800480"/>
+          <a:ext cx="3455865" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>育成メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>366346</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>24422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 角を丸くする 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66C8562-1767-40EF-92AD-38EBD5D4480E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13970000" y="7302499"/>
+          <a:ext cx="3455865" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>コレクション画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201EF140-5CA3-4DDE-AA2F-2AE86B62E999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15618558" y="6679714"/>
+          <a:ext cx="0" cy="525094"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>549519</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>416912</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形: 角を丸くする 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F3C0E3-DED1-4772-B14E-A5391D6A75AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763750" y="9512788"/>
+          <a:ext cx="2920277" cy="793529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>244232</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>111624</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="四角形: 角を丸くする 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3227F043-AFD8-47B0-8FCB-7038E1756C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13237309" y="10892690"/>
+          <a:ext cx="2920277" cy="793529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>ホーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122115</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134327</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A14B4C-2888-41EA-AD8D-A1CF40FB1DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14336346" y="11808557"/>
+          <a:ext cx="12212" cy="915866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219809</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335264</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>121892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D96850-5D63-4D7F-AB7A-5ABA71746D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13212886" y="12932018"/>
+          <a:ext cx="3168340" cy="793528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日用品登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>427404</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390770</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>122117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B772E6E6-E5D3-496D-9ADE-E8D1425484A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16473366" y="13371635"/>
+          <a:ext cx="573942" cy="12213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>598367</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>103245</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>30062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="四角形: 角を丸くする 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9024122C-115C-49F5-8EA5-14A6EABBD761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17254905" y="13017499"/>
+          <a:ext cx="3168340" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>家事登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219808</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>24422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F73DDD-9BDF-4D42-87CB-05B2EDB02939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16265770" y="11234614"/>
+          <a:ext cx="1099038" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158752</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形: 角を丸くする 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1E1E84-CE7B-456E-9AFF-86D274014053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17425867" y="10892691"/>
+          <a:ext cx="2869710" cy="787178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>日付詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1919,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
